--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -12240,7 +12240,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J219" s="13" t="n"/>
+      <c r="J219" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="K219" s="19" t="n"/>
       <c r="L219" s="19" t="inlineStr">
         <is>
@@ -12291,7 +12295,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J220" s="13" t="n"/>
+      <c r="J220" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="K220" s="19" t="n"/>
       <c r="L220" s="19" t="inlineStr">
         <is>
@@ -12397,7 +12405,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J222" s="13" t="n"/>
+      <c r="J222" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="K222" s="19" t="n"/>
       <c r="L222" s="19" t="inlineStr">
         <is>
@@ -12833,7 +12845,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J230" s="13" t="n"/>
+      <c r="J230" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="K230" s="19" t="n"/>
       <c r="L230" s="19" t="inlineStr">
         <is>
@@ -13104,7 +13120,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J235" s="13" t="n"/>
+      <c r="J235" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K235" s="19" t="n"/>
       <c r="L235" s="19" t="inlineStr">
         <is>
@@ -13261,7 +13281,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J238" s="13" t="n"/>
+      <c r="J238" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K238" s="19" t="n"/>
       <c r="L238" s="19" t="inlineStr">
         <is>
@@ -13312,7 +13336,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J239" s="13" t="n"/>
+      <c r="J239" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K239" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
@@ -13477,7 +13505,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J242" s="13" t="n"/>
+      <c r="J242" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K242" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
@@ -13532,7 +13564,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J243" s="13" t="n"/>
+      <c r="J243" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K243" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
@@ -13587,7 +13623,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J244" s="13" t="n"/>
+      <c r="J244" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K244" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
@@ -13642,7 +13682,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J245" s="13" t="n"/>
+      <c r="J245" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K245" s="19" t="n"/>
       <c r="L245" s="19" t="inlineStr">
         <is>
@@ -14086,7 +14130,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J253" s="13" t="n"/>
+      <c r="J253" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="K253" s="19" t="n"/>
       <c r="L253" s="19" t="inlineStr">
         <is>
@@ -14192,7 +14240,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J255" s="13" t="n"/>
+      <c r="J255" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K255" s="19" t="n"/>
       <c r="L255" s="19" t="inlineStr">
         <is>
@@ -14243,7 +14295,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J256" s="13" t="n"/>
+      <c r="J256" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K256" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
@@ -14518,7 +14574,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J261" s="13" t="n"/>
+      <c r="J261" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K261" s="19" t="n"/>
       <c r="L261" s="19" t="inlineStr">
         <is>
@@ -14624,7 +14684,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J263" s="13" t="n"/>
+      <c r="J263" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="K263" s="19" t="n"/>
       <c r="L263" s="19" t="inlineStr">
         <is>
@@ -14848,7 +14912,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J267" s="13" t="n"/>
+      <c r="J267" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K267" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
@@ -14903,7 +14971,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J268" s="13" t="n"/>
+      <c r="J268" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K268" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
@@ -15520,7 +15592,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J279" s="13" t="n"/>
+      <c r="J279" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K279" s="19" t="n"/>
       <c r="L279" s="19" t="inlineStr">
         <is>
@@ -15626,7 +15702,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J281" s="13" t="n"/>
+      <c r="J281" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K281" s="19" t="n"/>
       <c r="L281" s="19" t="inlineStr">
         <is>
@@ -16168,7 +16248,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J291" s="13" t="n"/>
+      <c r="J291" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K291" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
@@ -16223,7 +16307,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J292" s="13" t="n"/>
+      <c r="J292" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K292" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
@@ -16333,7 +16421,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J294" s="13" t="n"/>
+      <c r="J294" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K294" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
@@ -16553,7 +16645,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J298" s="13" t="n"/>
+      <c r="J298" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K298" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
@@ -16608,7 +16704,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J299" s="13" t="n"/>
+      <c r="J299" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="K299" s="19" t="n"/>
       <c r="L299" s="19" t="inlineStr">
         <is>
@@ -16710,7 +16810,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J301" s="13" t="n"/>
+      <c r="J301" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K301" s="19" t="n"/>
       <c r="L301" s="19" t="inlineStr">
         <is>
@@ -16761,7 +16865,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J302" s="13" t="n"/>
+      <c r="J302" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K302" s="19" t="n"/>
       <c r="L302" s="19" t="inlineStr">
         <is>
@@ -16914,7 +17022,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J305" s="13" t="n"/>
+      <c r="J305" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="K305" s="19" t="n"/>
       <c r="L305" s="19" t="inlineStr">
         <is>
@@ -16965,7 +17077,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J306" s="13" t="n"/>
+      <c r="J306" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K306" s="19" t="n"/>
       <c r="L306" s="19" t="inlineStr">
         <is>
@@ -17016,7 +17132,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J307" s="13" t="n"/>
+      <c r="J307" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K307" s="19" t="n"/>
       <c r="L307" s="19" t="inlineStr">
         <is>
@@ -17067,7 +17187,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J308" s="13" t="n"/>
+      <c r="J308" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="K308" s="19" t="n"/>
       <c r="L308" s="19" t="inlineStr">
         <is>
@@ -17731,7 +17855,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J320" s="13" t="n"/>
+      <c r="J320" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
@@ -17841,7 +17969,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J322" s="13" t="n"/>
+      <c r="J322" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
@@ -17892,7 +18024,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J323" s="13" t="n"/>
+      <c r="J323" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
@@ -17943,7 +18079,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J324" s="13" t="n"/>
+      <c r="J324" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
@@ -17994,7 +18134,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J325" s="13" t="n"/>
+      <c r="J325" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
@@ -18045,7 +18189,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J326" s="13" t="n"/>
+      <c r="J326" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
@@ -18096,7 +18244,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J327" s="13" t="n"/>
+      <c r="J327" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
@@ -19097,7 +19249,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J346" s="13" t="n"/>
+      <c r="J346" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
@@ -19148,7 +19304,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J347" s="13" t="n"/>
+      <c r="J347" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
@@ -19199,7 +19359,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J348" s="13" t="n"/>
+      <c r="J348" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
@@ -19250,7 +19414,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J349" s="13" t="n"/>
+      <c r="J349" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
@@ -19356,7 +19524,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J351" s="13" t="n"/>
+      <c r="J351" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
@@ -19407,7 +19579,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J352" s="13" t="n"/>
+      <c r="J352" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
@@ -19458,7 +19634,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J353" s="13" t="n"/>
+      <c r="J353" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
@@ -19509,7 +19689,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J354" s="13" t="n"/>
+      <c r="J354" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
@@ -19560,7 +19744,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J355" s="13" t="n"/>
+      <c r="J355" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
@@ -20788,7 +20976,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J379" s="13" t="n"/>
+      <c r="J379" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
